--- a/medicine/Handicap/Maladie_congénitale/Maladie_congénitale.xlsx
+++ b/medicine/Handicap/Maladie_congénitale/Maladie_congénitale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maladie_cong%C3%A9nitale</t>
+          <t>Maladie_congénitale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maladie congénitale (aussi dite anomalie congénitale) est une maladie, avec ou sans malformation apparue in utero et souvent détectée à la naissance ou plus tard dans la vie (littéralement : « est né avec »).
 « Congénital » n’est pas synonyme d'« héréditaire » : une affection congénitale n’est pas forcément d’origine génétique, c’est-à-dire liée à une anomalie des chromosomes ou de leurs gènes constitutifs ; elle peut être due à une intoxication in utero, à un traumatisme mécanique. Et même quand elle est génétique, elle n’est pas forcément héritée (dans ce cas, on parle de « mutation de novo »). À l’inverse, une affection héréditaire est souvent congénitale puisque l’anomalie chromosomique ou génique a été transmise dès la conception de l'embryon.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maladie_cong%C3%A9nitale</t>
+          <t>Maladie_congénitale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux facteurs sont connus pour causer ou favoriser une anomalie congénitale. Il est cependant souvent difficile de rétrospectivement retrouver la cause précise d’une anomalie ou d’une affection congénitale.
 De façon non exhaustive, nous pouvons citer :
@@ -521,7 +535,7 @@
 les causes toxiques, elles sont nombreuses ; par exemple :
 l’alcool, qui peut provoquer certaines malformations cardiaques (sténose pulmonaire),
 la cocaïne,
-les radiations ionisantes naturelles ou artificielles (rayons X utilisés en radiologie[1] ou produits radioactifs utilisés dans les domaines du nucléaire civil (centrales, médecine nucléaire) ou militaires[2],[3],[4],
+les radiations ionisantes naturelles ou artificielles (rayons X utilisés en radiologie ou produits radioactifs utilisés dans les domaines du nucléaire civil (centrales, médecine nucléaire) ou militaires
 les pesticides, insecticides, défoliants… L’agent orange utilisé par les Américains lors de la guerre du Viêt Nam semble responsable d’une augmentation des malformations chez les descendants des personnes contaminées ;
 certains médicaments : les malformations (amélies) secondaires à la prise de thalidomide comme les effets tératogènes du distilbène (progestatif utilisé dans les menaces d’accouchement prématurés) en sont les exemples les plus médiatisés. En fait, il est très difficile de savoir si un médicament comporte ou non un risque tératogène, celui-ci pouvant dépendre du moment auquel il est administré pendant la grossesse (les trois premiers mois sont les plus critiques) et n’être détecté que de nombreuses années après sa mise sur le marché. Pour toute nouvelle molécule, l’industrie pharmaceutique a l’obligation de tester son éventuel effet tératogène sur divers animaux de laboratoire mais l’absence d’effet néfaste chez l’animal ne permet pas d’affirmer l’absence d’effet chez la femme ou chez l’homme. L’impossibilité (évidente) de pratiquer de tels tests directement dans l’espèce humaine conduit en pratique à la contre-indication systématique pendant la grossesse (et l’allaitement) de tout nouveau médicament. On s’efforce toujours de soigner une femme enceinte en n’utilisant que des médicaments (le moins possible, le moins longtemps possible) anciens dont l’innocuité a pu être vérifiée, souvent parce que ce traitement a été administré sans encombre à plusieurs femmes qui ne se savaient pas enceintes ;
 certains déficits vitaminiques ; c’est ainsi qu’une supplémentation en acide folique avant même le début de la grossesse a pu diminuer significativement l’incidence de certaines malformations du tube neural (spina bifida) ;
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maladie_cong%C3%A9nitale</t>
+          <t>Maladie_congénitale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maladie congénitale
 Maladie qui apparaît à la naissance.
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maladie_cong%C3%A9nitale</t>
+          <t>Maladie_congénitale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,6 +611,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Maladie_cong%C3%A9nitale</t>
+          <t>Maladie_congénitale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Liste non exhaustive d'anomalies ou d'affections congénitales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sphérocytose héréditaire (maladie de Minkowski-Chauffard)
 Syndrome d’Aicardi
